--- a/AraBCPR301Assignment1-master/documentation/Lerois self reflection.xlsx
+++ b/AraBCPR301Assignment1-master/documentation/Lerois self reflection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Year 3\python\AraBCPR301Assignment1-master\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ADFSSTUD2\j-m\lec0396\Documents\Downloads\Year 3\BCPR301 - Advanced programming\FinalV4\Master\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19910C57-5A9A-4C37-8730-D3CD55FC22D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F8B4FC8-1F23-4549-B196-10EF58D28BEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{ABC6ACCB-12BD-4781-B857-7E98D154A41F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -100,9 +106,6 @@
     <t>All commands from start screen has a form of exception handling</t>
   </si>
   <si>
-    <t>Covers main functionality of program and plenty of alternative scenarios and bad day scenarios</t>
-  </si>
-  <si>
     <t>tests passes and covers all functionality</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
   </si>
   <si>
     <t>PlantUML</t>
+  </si>
+  <si>
+    <t>Asserts are placed in functions to ensure that parameters passed through are the correct type. The asserts placed covers the functionality of the program.</t>
   </si>
 </sst>
 </file>
@@ -217,12 +223,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -264,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -302,9 +314,12 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{49D71B0D-24FF-470B-8ECA-764E79546708}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -616,11 +631,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136862BF-2E76-4C8C-8CB0-90CA344DF34B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1707,9 @@
         <v>6</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="13">
+        <v>2</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -2721,16 +2738,18 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4">
         <v>6</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="13">
+        <v>2</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -3762,13 +3781,15 @@
         <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4">
         <v>6</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="13">
+        <v>2</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -4800,13 +4821,15 @@
         <v>23</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4">
         <v>6</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -5835,10 +5858,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
@@ -6873,10 +6896,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4">
         <v>6</v>
@@ -7911,10 +7934,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4">
         <v>6</v>
@@ -8949,10 +8972,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4">
         <v>6</v>
@@ -9987,16 +10010,18 @@
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="13">
+        <v>2</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -11025,16 +11050,18 @@
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4">
         <v>6</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -12063,16 +12090,18 @@
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4">
         <v>6</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -14126,7 +14155,10 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4">
+        <f>SUM(F2:F12)</f>
+        <v>66</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -18226,10 +18258,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -19252,7 +19284,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" xr:uid="{97A33C92-CF4A-46F4-A50E-219EDCFA2C4B}"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>

--- a/AraBCPR301Assignment1-master/documentation/Lerois self reflection.xlsx
+++ b/AraBCPR301Assignment1-master/documentation/Lerois self reflection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ADFSSTUD2\j-m\lec0396\Documents\Downloads\Year 3\BCPR301 - Advanced programming\FinalV4\Master\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F8B4FC8-1F23-4549-B196-10EF58D28BEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC8E4BA-4E04-4107-8810-FA8FA59643F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
     <t>PlantUML</t>
   </si>
   <si>
-    <t>Asserts are placed in functions to ensure that parameters passed through are the correct type. The asserts placed covers the functionality of the program.</t>
+    <t>Asserts are placed in functions to ensure that parameters passed through are the correct type. Once function has finished processing the logic, assert checks that the type return is the correct type. The asserts placed covers the functionality of the program.</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5847,7 +5847,7 @@
       <c r="AMI5" s="3"/>
       <c r="AMJ5" s="3"/>
     </row>
-    <row r="6" spans="1:1024" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>6</v>
       </c>
